--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Lamp2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.545706686682453</v>
+        <v>0.052706</v>
       </c>
       <c r="H2">
-        <v>0.545706686682453</v>
+        <v>0.158118</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.03694129152706233</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.03694129152706232</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.7215914805715</v>
+        <v>116.9612273333333</v>
       </c>
       <c r="N2">
-        <v>82.7215914805715</v>
+        <v>350.883682</v>
       </c>
       <c r="O2">
-        <v>0.1462069548984917</v>
+        <v>0.1879432022234502</v>
       </c>
       <c r="P2">
-        <v>0.1462069548984917</v>
+        <v>0.1879432022234502</v>
       </c>
       <c r="Q2">
-        <v>45.14172560396211</v>
+        <v>6.164558447830667</v>
       </c>
       <c r="R2">
-        <v>45.14172560396211</v>
+        <v>55.48102603047601</v>
       </c>
       <c r="S2">
-        <v>0.1462069548984917</v>
+        <v>0.0069428646238661</v>
       </c>
       <c r="T2">
-        <v>0.1462069548984917</v>
+        <v>0.006942864623866099</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.545706686682453</v>
+        <v>0.052706</v>
       </c>
       <c r="H3">
-        <v>0.545706686682453</v>
+        <v>0.158118</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.03694129152706233</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.03694129152706232</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>202.054918437999</v>
+        <v>202.4456936666667</v>
       </c>
       <c r="N3">
-        <v>202.054918437999</v>
+        <v>607.337081</v>
       </c>
       <c r="O3">
-        <v>0.3571236217574624</v>
+        <v>0.3253068799938748</v>
       </c>
       <c r="P3">
-        <v>0.3571236217574624</v>
+        <v>0.3253068799938748</v>
       </c>
       <c r="Q3">
-        <v>110.2627200686937</v>
+        <v>10.67010273039533</v>
       </c>
       <c r="R3">
-        <v>110.2627200686937</v>
+        <v>96.03092457355801</v>
       </c>
       <c r="S3">
-        <v>0.3571236217574624</v>
+        <v>0.01201725628961281</v>
       </c>
       <c r="T3">
-        <v>0.3571236217574624</v>
+        <v>0.01201725628961281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.545706686682453</v>
+        <v>0.052706</v>
       </c>
       <c r="H4">
-        <v>0.545706686682453</v>
+        <v>0.158118</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.03694129152706233</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.03694129152706232</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>196.042682905196</v>
+        <v>215.7937443333334</v>
       </c>
       <c r="N4">
-        <v>196.042682905196</v>
+        <v>647.3812330000001</v>
       </c>
       <c r="O4">
-        <v>0.3464972467850939</v>
+        <v>0.3467556578746387</v>
       </c>
       <c r="P4">
-        <v>0.3464972467850939</v>
+        <v>0.3467556578746386</v>
       </c>
       <c r="Q4">
-        <v>106.9818029365333</v>
+        <v>11.37362508883267</v>
       </c>
       <c r="R4">
-        <v>106.9818029365333</v>
+        <v>102.362625799494</v>
       </c>
       <c r="S4">
-        <v>0.3464972467850939</v>
+        <v>0.01280960184620531</v>
       </c>
       <c r="T4">
-        <v>0.3464972467850939</v>
+        <v>0.01280960184620531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.052706</v>
+      </c>
+      <c r="H5">
+        <v>0.158118</v>
+      </c>
+      <c r="I5">
+        <v>0.03694129152706233</v>
+      </c>
+      <c r="J5">
+        <v>0.03694129152706232</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>87.12153599999999</v>
+      </c>
+      <c r="N5">
+        <v>261.364608</v>
+      </c>
+      <c r="O5">
+        <v>0.1399942599080363</v>
+      </c>
+      <c r="P5">
+        <v>0.1399942599080363</v>
+      </c>
+      <c r="Q5">
+        <v>4.591827676416</v>
+      </c>
+      <c r="R5">
+        <v>41.326449087744</v>
+      </c>
+      <c r="S5">
+        <v>0.005171568767378103</v>
+      </c>
+      <c r="T5">
+        <v>0.005171568767378103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.6742976666666666</v>
+      </c>
+      <c r="H6">
+        <v>2.022893</v>
+      </c>
+      <c r="I6">
+        <v>0.4726108352056924</v>
+      </c>
+      <c r="J6">
+        <v>0.4726108352056924</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>116.9612273333333</v>
+      </c>
+      <c r="N6">
+        <v>350.883682</v>
+      </c>
+      <c r="O6">
+        <v>0.1879432022234502</v>
+      </c>
+      <c r="P6">
+        <v>0.1879432022234502</v>
+      </c>
+      <c r="Q6">
+        <v>78.86668268133621</v>
+      </c>
+      <c r="R6">
+        <v>709.8001441320259</v>
+      </c>
+      <c r="S6">
+        <v>0.08882399377405711</v>
+      </c>
+      <c r="T6">
+        <v>0.08882399377405711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.6742976666666666</v>
+      </c>
+      <c r="H7">
+        <v>2.022893</v>
+      </c>
+      <c r="I7">
+        <v>0.4726108352056924</v>
+      </c>
+      <c r="J7">
+        <v>0.4726108352056924</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>202.4456936666667</v>
+      </c>
+      <c r="N7">
+        <v>607.337081</v>
+      </c>
+      <c r="O7">
+        <v>0.3253068799938748</v>
+      </c>
+      <c r="P7">
+        <v>0.3253068799938748</v>
+      </c>
+      <c r="Q7">
+        <v>136.5086588661481</v>
+      </c>
+      <c r="R7">
+        <v>1228.577929795333</v>
+      </c>
+      <c r="S7">
+        <v>0.1537435562520631</v>
+      </c>
+      <c r="T7">
+        <v>0.1537435562520631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.6742976666666666</v>
+      </c>
+      <c r="H8">
+        <v>2.022893</v>
+      </c>
+      <c r="I8">
+        <v>0.4726108352056924</v>
+      </c>
+      <c r="J8">
+        <v>0.4726108352056924</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>215.7937443333334</v>
+      </c>
+      <c r="N8">
+        <v>647.3812330000001</v>
+      </c>
+      <c r="O8">
+        <v>0.3467556578746387</v>
+      </c>
+      <c r="P8">
+        <v>0.3467556578746386</v>
+      </c>
+      <c r="Q8">
+        <v>145.5092182852299</v>
+      </c>
+      <c r="R8">
+        <v>1309.582964567069</v>
+      </c>
+      <c r="S8">
+        <v>0.1638804810804323</v>
+      </c>
+      <c r="T8">
+        <v>0.1638804810804323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.6742976666666666</v>
+      </c>
+      <c r="H9">
+        <v>2.022893</v>
+      </c>
+      <c r="I9">
+        <v>0.4726108352056924</v>
+      </c>
+      <c r="J9">
+        <v>0.4726108352056924</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>87.12153599999999</v>
+      </c>
+      <c r="N9">
+        <v>261.364608</v>
+      </c>
+      <c r="O9">
+        <v>0.1399942599080363</v>
+      </c>
+      <c r="P9">
+        <v>0.1399942599080363</v>
+      </c>
+      <c r="Q9">
+        <v>58.74584844121598</v>
+      </c>
+      <c r="R9">
+        <v>528.7126359709439</v>
+      </c>
+      <c r="S9">
+        <v>0.06616280409913981</v>
+      </c>
+      <c r="T9">
+        <v>0.06616280409913981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.545706686682453</v>
-      </c>
-      <c r="H5">
-        <v>0.545706686682453</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>84.96505142099809</v>
-      </c>
-      <c r="N5">
-        <v>84.96505142099809</v>
-      </c>
-      <c r="O5">
-        <v>0.1501721765589522</v>
-      </c>
-      <c r="P5">
-        <v>0.1501721765589522</v>
-      </c>
-      <c r="Q5">
-        <v>46.36599669475711</v>
-      </c>
-      <c r="R5">
-        <v>46.36599669475711</v>
-      </c>
-      <c r="S5">
-        <v>0.1501721765589522</v>
-      </c>
-      <c r="T5">
-        <v>0.1501721765589522</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6997466666666666</v>
+      </c>
+      <c r="H10">
+        <v>2.09924</v>
+      </c>
+      <c r="I10">
+        <v>0.4904478732672454</v>
+      </c>
+      <c r="J10">
+        <v>0.4904478732672453</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>116.9612273333333</v>
+      </c>
+      <c r="N10">
+        <v>350.883682</v>
+      </c>
+      <c r="O10">
+        <v>0.1879432022234502</v>
+      </c>
+      <c r="P10">
+        <v>0.1879432022234502</v>
+      </c>
+      <c r="Q10">
+        <v>81.84322895574222</v>
+      </c>
+      <c r="R10">
+        <v>736.58906060168</v>
+      </c>
+      <c r="S10">
+        <v>0.09217634382552695</v>
+      </c>
+      <c r="T10">
+        <v>0.09217634382552693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6997466666666666</v>
+      </c>
+      <c r="H11">
+        <v>2.09924</v>
+      </c>
+      <c r="I11">
+        <v>0.4904478732672454</v>
+      </c>
+      <c r="J11">
+        <v>0.4904478732672453</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>202.4456936666667</v>
+      </c>
+      <c r="N11">
+        <v>607.337081</v>
+      </c>
+      <c r="O11">
+        <v>0.3253068799938748</v>
+      </c>
+      <c r="P11">
+        <v>0.3253068799938748</v>
+      </c>
+      <c r="Q11">
+        <v>141.6606993242711</v>
+      </c>
+      <c r="R11">
+        <v>1274.94629391844</v>
+      </c>
+      <c r="S11">
+        <v>0.1595460674521989</v>
+      </c>
+      <c r="T11">
+        <v>0.1595460674521989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6997466666666666</v>
+      </c>
+      <c r="H12">
+        <v>2.09924</v>
+      </c>
+      <c r="I12">
+        <v>0.4904478732672454</v>
+      </c>
+      <c r="J12">
+        <v>0.4904478732672453</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>215.7937443333334</v>
+      </c>
+      <c r="N12">
+        <v>647.3812330000001</v>
+      </c>
+      <c r="O12">
+        <v>0.3467556578746387</v>
+      </c>
+      <c r="P12">
+        <v>0.3467556578746386</v>
+      </c>
+      <c r="Q12">
+        <v>151.0009532847689</v>
+      </c>
+      <c r="R12">
+        <v>1359.00857956292</v>
+      </c>
+      <c r="S12">
+        <v>0.1700655749480011</v>
+      </c>
+      <c r="T12">
+        <v>0.170065574948001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6997466666666666</v>
+      </c>
+      <c r="H13">
+        <v>2.09924</v>
+      </c>
+      <c r="I13">
+        <v>0.4904478732672454</v>
+      </c>
+      <c r="J13">
+        <v>0.4904478732672453</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>87.12153599999999</v>
+      </c>
+      <c r="N13">
+        <v>261.364608</v>
+      </c>
+      <c r="O13">
+        <v>0.1399942599080363</v>
+      </c>
+      <c r="P13">
+        <v>0.1399942599080363</v>
+      </c>
+      <c r="Q13">
+        <v>60.96300441087999</v>
+      </c>
+      <c r="R13">
+        <v>548.6670396979199</v>
+      </c>
+      <c r="S13">
+        <v>0.0686598870415184</v>
+      </c>
+      <c r="T13">
+        <v>0.0686598870415184</v>
       </c>
     </row>
   </sheetData>
